--- a/Modelo_Atualizacao_Status.xlsx
+++ b/Modelo_Atualizacao_Status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u354374\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iberdrola-my.sharepoint.com/personal/thiago_smoreira_neoenergia_com/Documents/THIAGO MOREIRA/DESENVOLVEDOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330605DA-8FCA-431F-86BA-0B77321C7819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{330605DA-8FCA-431F-86BA-0B77321C7819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA794FF-F71C-4500-B03A-CC46113E3392}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15930" tabRatio="630" xr2:uid="{BF6BE8B3-BA92-4D73-8628-676C3C95437D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="630" xr2:uid="{BF6BE8B3-BA92-4D73-8628-676C3C95437D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="5" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>PEDIDO</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>Solicitação Recebida</t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>Disponível para Retirada</t>
+  </si>
+  <si>
+    <t>Número do Pedido</t>
+  </si>
+  <si>
+    <t>Novo Status</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,41 +484,41 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
